--- a/results/hedac/15x15/hedac_15x15_True_2_500.xlsx
+++ b/results/hedac/15x15/hedac_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Experiment_Time</t>
+          <t>Avg_Experiment_Time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Std_Total_Rounds</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Cost</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Round_Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Agent_Step_Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Experiment_Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Obs_Prob</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std_Total_Rounds</t>
         </is>
       </c>
     </row>
@@ -493,28 +518,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>88.318</v>
+        <v>52.474</v>
       </c>
       <c r="D2" t="n">
-        <v>88.318</v>
+        <v>52.474</v>
       </c>
       <c r="E2" t="n">
-        <v>1.95153</v>
+        <v>3.27932476</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12341</v>
+        <v>0.11982008</v>
       </c>
       <c r="G2" t="n">
-        <v>0.12341</v>
+        <v>0.11982008</v>
       </c>
       <c r="H2" t="n">
-        <v>10.89602</v>
+        <v>6.28757532</v>
       </c>
       <c r="I2" t="n">
-        <v>0.85</v>
+        <v>6.93639323439815</v>
       </c>
       <c r="J2" t="n">
-        <v>12.40165</v>
+        <v>6.93639323439815</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4483329319748089</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0005816588757127249</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0005816588757127249</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.8325617832983421</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +565,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>52.474</v>
+        <v>88.318</v>
       </c>
       <c r="D3" t="n">
-        <v>52.474</v>
+        <v>88.318</v>
       </c>
       <c r="E3" t="n">
-        <v>3.27932</v>
+        <v>1.95153118</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11982</v>
+        <v>0.1234054</v>
       </c>
       <c r="G3" t="n">
-        <v>0.11982</v>
+        <v>0.1234054</v>
       </c>
       <c r="H3" t="n">
-        <v>6.28758</v>
+        <v>10.89602058</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>12.41406839792567</v>
       </c>
       <c r="J3" t="n">
-        <v>6.92945</v>
+        <v>12.41406839792567</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2764158466060103</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.004657698439089739</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.004657698439089739</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.567666006198464</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +618,37 @@
         <v>57.516</v>
       </c>
       <c r="E4" t="n">
-        <v>3.02659</v>
+        <v>3.02658988</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12946</v>
+        <v>0.12946328</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06473</v>
+        <v>0.06473174</v>
       </c>
       <c r="H4" t="n">
-        <v>1.86037</v>
+        <v>1.86037352</v>
       </c>
       <c r="I4" t="n">
+        <v>5.126010922340285</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.25202184468057</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5080511998826398</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.006538954924497432</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.003269520561459067</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3357931835309068</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.12088</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +665,37 @@
         <v>96.786</v>
       </c>
       <c r="E5" t="n">
-        <v>1.80241</v>
+        <v>1.80240734</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12183</v>
+        <v>0.12183178</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06092</v>
+        <v>0.06091596000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2.94689</v>
+        <v>2.94689314</v>
       </c>
       <c r="I5" t="n">
+        <v>8.657058005270223</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17.30801371265214</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3236011440591599</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.001622370365485518</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0008108836803673955</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5221501234368816</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.648400000000001</v>
       </c>
     </row>
     <row r="6">
@@ -621,28 +706,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.416</v>
+        <v>15.366</v>
       </c>
       <c r="D6" t="n">
-        <v>101.644</v>
+        <v>61.464</v>
       </c>
       <c r="E6" t="n">
-        <v>1.74044</v>
+        <v>2.92074236</v>
       </c>
       <c r="F6" t="n">
-        <v>0.12769</v>
+        <v>0.12576102</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03192</v>
+        <v>0.03144018</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8105599999999999</v>
+        <v>0.48307418</v>
       </c>
       <c r="I6" t="n">
-        <v>0.85</v>
+        <v>4.040382826759557</v>
       </c>
       <c r="J6" t="n">
-        <v>5.68533</v>
+        <v>16.16153130703823</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6841049143086116</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.002160795324056615</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0005401285451543745</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1272114305180021</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +753,43 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.366</v>
+        <v>25.416</v>
       </c>
       <c r="D7" t="n">
-        <v>61.464</v>
+        <v>101.644</v>
       </c>
       <c r="E7" t="n">
-        <v>2.92074</v>
+        <v>1.74044188</v>
       </c>
       <c r="F7" t="n">
-        <v>0.12576</v>
+        <v>0.12768986</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03144</v>
+        <v>0.03192232</v>
       </c>
       <c r="H7" t="n">
-        <v>0.48307</v>
+        <v>0.8105630000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>5.691020948729476</v>
       </c>
       <c r="J7" t="n">
-        <v>4.03634</v>
+        <v>22.75928897107592</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3655158606644315</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.007448395624236826</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.001861791705403324</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1837964228288717</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +806,37 @@
         <v>60.192</v>
       </c>
       <c r="E8" t="n">
-        <v>2.96112</v>
+        <v>2.96112208</v>
       </c>
       <c r="F8" t="n">
-        <v>0.13138</v>
+        <v>0.13137902</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0219</v>
+        <v>0.02189646</v>
       </c>
       <c r="H8" t="n">
-        <v>0.21954</v>
+        <v>0.21953618</v>
       </c>
       <c r="I8" t="n">
+        <v>2.427913822824468</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.56748293694681</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.6746925128114</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.01104355393007219</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.001840451518509512</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.05604423960759918</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.42548</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +853,37 @@
         <v>106.49</v>
       </c>
       <c r="E9" t="n">
-        <v>1.68068</v>
+        <v>1.6806774</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1269</v>
+        <v>0.12690168</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02115</v>
+        <v>0.02115014</v>
       </c>
       <c r="H9" t="n">
-        <v>0.37511</v>
+        <v>0.3751084</v>
       </c>
       <c r="I9" t="n">
+        <v>4.447702791356509</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26.67502603612705</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3946577504908334</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.00173120852108779</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0002885194401330166</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.09244985035954902</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.44325</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +894,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13.386</v>
+        <v>7.45</v>
       </c>
       <c r="D10" t="n">
-        <v>107.042</v>
+        <v>59.6</v>
       </c>
       <c r="E10" t="n">
-        <v>1.68668</v>
+        <v>2.991938779999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.12104</v>
+        <v>0.12238388</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01513</v>
+        <v>0.01529804</v>
       </c>
       <c r="H10" t="n">
-        <v>0.20237</v>
+        <v>0.11394494</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>1.769112636051779</v>
       </c>
       <c r="J10" t="n">
-        <v>3.67818</v>
+        <v>14.15290108841424</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6941270994108966</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.001447533091055053</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0001805895444568546</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.02699184541364425</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -781,28 +941,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7.45</v>
+        <v>13.386</v>
       </c>
       <c r="D11" t="n">
-        <v>59.6</v>
+        <v>107.042</v>
       </c>
       <c r="E11" t="n">
-        <v>2.99194</v>
+        <v>1.68667464</v>
       </c>
       <c r="F11" t="n">
-        <v>0.12238</v>
+        <v>0.12104198</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0153</v>
+        <v>0.01513032</v>
       </c>
       <c r="H11" t="n">
-        <v>0.11395</v>
+        <v>0.20237088</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>3.681863146895187</v>
       </c>
       <c r="J11" t="n">
-        <v>1.76734</v>
+        <v>29.40328795705288</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4249842414205284</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.004901327483631716</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0006125274502866866</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.05547959554168124</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +994,37 @@
         <v>60.36</v>
       </c>
       <c r="E12" t="n">
-        <v>3.00514</v>
+        <v>3.00514502</v>
       </c>
       <c r="F12" t="n">
-        <v>0.12357</v>
+        <v>0.12356824</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01236</v>
+        <v>0.01235692</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07459</v>
+        <v>0.07458858</v>
       </c>
       <c r="I12" t="n">
+        <v>1.621098368341563</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16.21098368341563</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8151755741463118</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.001508019079949251</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0001509519346452582</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.02008402462341021</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.61948</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +1041,37 @@
         <v>110.28</v>
       </c>
       <c r="E13" t="n">
-        <v>1.64856</v>
+        <v>1.64855824</v>
       </c>
       <c r="F13" t="n">
-        <v>0.12085</v>
+        <v>0.12084636</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01208</v>
+        <v>0.01208478</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13319</v>
+        <v>0.1331877</v>
       </c>
       <c r="I13" t="n">
+        <v>3.055360282013532</v>
+      </c>
+      <c r="J13" t="n">
+        <v>30.49566479259445</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4506542722712557</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.004213287972769363</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0004212941122993724</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.03655539893493963</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.0523</v>
       </c>
     </row>
   </sheetData>

--- a/results/hedac/15x15/hedac_15x15_True_2_500.xlsx
+++ b/results/hedac/15x15/hedac_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
